--- a/biology/Botanique/Rottboellia/Rottboellia.xlsx
+++ b/biology/Botanique/Rottboellia/Rottboellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rottboellia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales de l'Ancien Monde[2], qui comprend six espèces acceptées. Le genre a été défini par Carl von Linné le Jeune et nommé en l'honneur du  botaniste danois Christen Friis Rottbøll (1727-1797).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rottboellia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales de l'Ancien Monde, qui comprend six espèces acceptées. Le genre a été défini par Carl von Linné le Jeune et nommé en l'honneur du  botaniste danois Christen Friis Rottbøll (1727-1797).
 On trouve les espèces de ce genre dans les régions holarctique, paléotropicale (Asie sud-orientale), néotropicale, et dans le nord et l'est de l'Australie (régions tropicales australiennes).
 </t>
         </is>
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon  GRIN[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  GRIN :
 Robynsiochloa Jacq.-Fél.
-Stegosia Lour.
-Liste d'espèces
-Selon The Plant List            (11 novembre 2017)[4] :
+Stegosia Lour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rottboellia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rottboellia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (11 novembre 2017) :
 Rottboellia cochinchinensis (Lour.) Clayton
 Rottboellia coelorachis G.Forst.
 Rottboellia goalparensis Bor
